--- a/story/Main Story and Others 主线剧情等/tutorial 教学关卡/level/main_06-15_b1.xlsx
+++ b/story/Main Story and Others 主线剧情等/tutorial 教学关卡/level/main_06-15_b1.xlsx
@@ -36,7 +36,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_amiya")] Even so… Even if that is the case, I won't pull back my hand!
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_amiya")] Even so... Even if that is the case, I won't pull back my hand!
 </t>
   </si>
   <si>
